--- a/data/rai.xlsx
+++ b/data/rai.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clint\Documents\nss\Capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E845D-9EE5-4F5E-93D2-E0A8762A1CBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8863CD87-3677-43DA-B4B1-B82C80519B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="5" xr2:uid="{D2E13FDA-E432-4AB8-948F-432F5AC785A9}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{D2E13FDA-E432-4AB8-948F-432F5AC785A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="328">
   <si>
     <t>No.</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Salary</t>
   </si>
   <si>
-    <t>Derek Carr*</t>
-  </si>
-  <si>
     <t>QB</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Washington</t>
   </si>
   <si>
-    <t>Latavius Murray*</t>
-  </si>
-  <si>
     <t>Central Florida</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>San Francisco 49ers / 1st / 10th pick / 2009</t>
   </si>
   <si>
-    <t>Amari Cooper*</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
     <t>Oakland Raiders / 4th / 107th pick / 2014</t>
   </si>
   <si>
-    <t>Khalil Mack*+</t>
-  </si>
-  <si>
     <t>RDE</t>
   </si>
   <si>
@@ -323,9 +311,6 @@
     <t>Washington Redskins / 2nd / 51st pick / 2013</t>
   </si>
   <si>
-    <t>Charles Woodson *</t>
-  </si>
-  <si>
     <t>SS</t>
   </si>
   <si>
@@ -374,9 +359,6 @@
     <t>Oakland Raiders / 3rd / 68th pick / 2015</t>
   </si>
   <si>
-    <t>Donald Penn*</t>
-  </si>
-  <si>
     <t>Vadal Alexander</t>
   </si>
   <si>
@@ -389,18 +371,12 @@
     <t>Oakland Raiders / 7th / 234th pick / 2016</t>
   </si>
   <si>
-    <t>Kelechi Osemele*+</t>
-  </si>
-  <si>
     <t>Iowa St.</t>
   </si>
   <si>
     <t>Baltimore Ravens / 2nd / 60th pick / 2012</t>
   </si>
   <si>
-    <t>Rodney Hudson*</t>
-  </si>
-  <si>
     <t>Menelik Watson</t>
   </si>
   <si>
@@ -467,9 +443,6 @@
     <t>Oakland Raiders / 1st / 14th pick / 2016</t>
   </si>
   <si>
-    <t>Reggie Nelson*</t>
-  </si>
-  <si>
     <t>Florida</t>
   </si>
   <si>
@@ -497,9 +470,6 @@
     <t>Tennessee Titans / 3rd / 89th pick / 2009</t>
   </si>
   <si>
-    <t>Kelechi Osemele*</t>
-  </si>
-  <si>
     <t>Marshall Newhouse</t>
   </si>
   <si>
@@ -518,9 +488,6 @@
     <t>Oakland Raiders / 3rd / 88th pick / 2017</t>
   </si>
   <si>
-    <t>Khalil Mack*</t>
-  </si>
-  <si>
     <t>Marquel Lee</t>
   </si>
   <si>
@@ -602,9 +569,6 @@
     <t>Oakland Raiders / 7th / 228th pick / 2018</t>
   </si>
   <si>
-    <t>Jared Cook*</t>
-  </si>
-  <si>
     <t>Kolton Miller</t>
   </si>
   <si>
@@ -758,9 +722,6 @@
     <t>Indianapolis Colts / 7th / 255th pick / 2015</t>
   </si>
   <si>
-    <t>Trent Brown*</t>
-  </si>
-  <si>
     <t>San Francisco 49ers / 7th / 244th pick / 2015</t>
   </si>
   <si>
@@ -824,9 +785,6 @@
     <t>St. Louis Rams / 2nd / 41st pick / 2014</t>
   </si>
   <si>
-    <t>Player</t>
-  </si>
-  <si>
     <t>Nathan Peterman</t>
   </si>
   <si>
@@ -1004,12 +962,6 @@
     <t>Keisean Nixon</t>
   </si>
   <si>
-    <t>Isaiah Johnson</t>
-  </si>
-  <si>
-    <t>Oakland Raiders / 4th / 129th pick / 2019</t>
-  </si>
-  <si>
     <t>Damon Arnette</t>
   </si>
   <si>
@@ -1053,6 +1005,15 @@
   </si>
   <si>
     <t>EDGE</t>
+  </si>
+  <si>
+    <t>Khalil Mack</t>
+  </si>
+  <si>
+    <t>Charles Woodson </t>
+  </si>
+  <si>
+    <t>$610,00</t>
   </si>
 </sst>
 </file>
@@ -1414,10 +1375,13 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="25.2265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -1468,13 +1432,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>16</v>
@@ -1489,7 +1453,7 @@
         <v>43985</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>33325</v>
@@ -1501,7 +1465,7 @@
         <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3">
         <v>1220864</v>
@@ -1512,13 +1476,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -1533,7 +1497,7 @@
         <v>43983</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2">
         <v>31221</v>
@@ -1553,13 +1517,13 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>16</v>
@@ -1574,7 +1538,7 @@
         <v>43985</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2">
         <v>32891</v>
@@ -1586,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" s="3">
         <v>611550</v>
@@ -1597,13 +1561,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -1618,7 +1582,7 @@
         <v>43984</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>33291</v>
@@ -1638,13 +1602,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -1659,7 +1623,7 @@
         <v>43983</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2">
         <v>32034</v>
@@ -1671,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N6" s="3">
         <v>3200000</v>
@@ -1682,13 +1646,13 @@
         <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -1703,19 +1667,19 @@
         <v>43983</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2">
         <v>34502</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>9</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N7" s="3">
         <v>4120566</v>
@@ -1726,13 +1690,13 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -1747,7 +1711,7 @@
         <v>43988</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J8" s="2">
         <v>32102</v>
@@ -1759,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N8" s="3">
         <v>3350000</v>
@@ -1770,13 +1734,13 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -1791,7 +1755,7 @@
         <v>43986</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2">
         <v>30433</v>
@@ -1811,13 +1775,13 @@
         <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>16</v>
@@ -1832,7 +1796,7 @@
         <v>43985</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J10" s="2">
         <v>33431</v>
@@ -1844,7 +1808,7 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N10" s="3">
         <v>672844</v>
@@ -1855,13 +1819,13 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>13</v>
@@ -1876,7 +1840,7 @@
         <v>43984</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2">
         <v>32701</v>
@@ -1888,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N11" s="3">
         <v>13000000</v>
@@ -1899,13 +1863,13 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>16</v>
@@ -1920,7 +1884,7 @@
         <v>43989</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2">
         <v>32363</v>
@@ -1932,7 +1896,7 @@
         <v>7</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N12" s="3">
         <v>585000</v>
@@ -1943,13 +1907,13 @@
         <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>13</v>
@@ -1964,7 +1928,7 @@
         <v>43989</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J13" s="2">
         <v>31858</v>
@@ -1984,13 +1948,13 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -2005,7 +1969,7 @@
         <v>43987</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2">
         <v>30404</v>
@@ -2017,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N14" s="3">
         <v>4968750</v>
@@ -2028,13 +1992,13 @@
         <v>97</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -2049,19 +2013,19 @@
         <v>43985</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2">
         <v>34359</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N15" s="3">
         <v>1094029</v>
@@ -2072,13 +2036,13 @@
         <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -2093,7 +2057,7 @@
         <v>43987</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J16" s="2">
         <v>33069</v>
@@ -2113,13 +2077,13 @@
         <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -2134,7 +2098,7 @@
         <v>43984</v>
       </c>
       <c r="I17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J17" s="2">
         <v>31929</v>
@@ -2146,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N17" s="3">
         <v>8000000</v>
@@ -2157,13 +2121,13 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>12</v>
@@ -2178,7 +2142,7 @@
         <v>43984</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J18" s="2">
         <v>33234</v>
@@ -2190,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N18" s="3">
         <v>628172</v>
@@ -2201,13 +2165,13 @@
         <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="C19">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -2222,7 +2186,7 @@
         <v>43985</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J19" s="2">
         <v>33291</v>
@@ -2234,7 +2198,7 @@
         <v>15</v>
       </c>
       <c r="M19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N19" s="3">
         <v>4244773</v>
@@ -2245,13 +2209,13 @@
         <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E20">
         <v>9</v>
@@ -2266,7 +2230,7 @@
         <v>43987</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J20" s="2">
         <v>32776</v>
@@ -2278,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N20" s="3">
         <v>3000000</v>
@@ -2289,13 +2253,13 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E21">
         <v>16</v>
@@ -2310,7 +2274,7 @@
         <v>43984</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2">
         <v>31565</v>
@@ -2322,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N21" s="3">
         <v>6500000</v>
@@ -2333,13 +2297,13 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -2354,7 +2318,7 @@
         <v>36678</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J22" s="2">
         <v>32694</v>
@@ -2366,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N22" s="3">
         <v>4000000</v>
@@ -2377,13 +2341,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -2398,7 +2362,7 @@
         <v>43962</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J23" s="2">
         <v>33051</v>
@@ -2410,7 +2374,7 @@
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N23" s="3">
         <v>2815554</v>
@@ -2421,13 +2385,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24">
         <v>14</v>
@@ -2442,7 +2406,7 @@
         <v>43983</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J24" s="2">
         <v>33580</v>
@@ -2454,7 +2418,7 @@
         <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N24" s="3"/>
     </row>
@@ -2463,13 +2427,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="C25">
         <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <v>16</v>
@@ -2484,7 +2448,7 @@
         <v>43983</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J25" s="2">
         <v>28040</v>
@@ -2496,7 +2460,7 @@
         <v>10</v>
       </c>
       <c r="M25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N25" s="3">
         <v>4200000</v>
@@ -2507,13 +2471,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C26">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>14</v>
@@ -2528,7 +2492,7 @@
         <v>43985</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J26" s="2">
         <v>32180</v>
@@ -2540,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N26" s="3">
         <v>550588</v>
@@ -2551,13 +2515,13 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>15</v>
@@ -2572,7 +2536,7 @@
         <v>36678</v>
       </c>
       <c r="I27" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J27" s="2">
         <v>33082</v>
@@ -2584,7 +2548,7 @@
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N27" s="3">
         <v>526741</v>
@@ -2601,10 +2565,13 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -2655,13 +2622,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -2676,7 +2643,7 @@
         <v>43985</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>33325</v>
@@ -2688,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3">
         <v>1465037</v>
@@ -2699,13 +2666,13 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>16</v>
@@ -2720,7 +2687,7 @@
         <v>43983</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J3" s="2">
         <v>32615</v>
@@ -2740,13 +2707,13 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -2761,7 +2728,7 @@
         <v>43985</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2">
         <v>32891</v>
@@ -2773,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N4" s="3">
         <v>701550</v>
@@ -2784,13 +2751,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>16</v>
@@ -2805,7 +2772,7 @@
         <v>43984</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>33291</v>
@@ -2825,13 +2792,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -2846,7 +2813,7 @@
         <v>43983</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2">
         <v>32034</v>
@@ -2858,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N6" s="3">
         <v>11000000</v>
@@ -2869,13 +2836,13 @@
         <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -2890,7 +2857,7 @@
         <v>43983</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2">
         <v>34502</v>
@@ -2902,7 +2869,7 @@
         <v>10</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N7" s="3">
         <v>5150708</v>
@@ -2913,13 +2880,13 @@
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -2934,7 +2901,7 @@
         <v>43986</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J8" s="2">
         <v>33512</v>
@@ -2946,7 +2913,7 @@
         <v>3</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N8" s="3">
         <v>781126</v>
@@ -2957,13 +2924,13 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>16</v>
@@ -2978,7 +2945,7 @@
         <v>43986</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2">
         <v>30433</v>
@@ -2998,13 +2965,13 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C10">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -3019,19 +2986,19 @@
         <v>43987</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J10" s="2">
         <v>34416</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L10">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N10" s="3">
         <v>469211</v>
@@ -3042,13 +3009,13 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -3063,7 +3030,7 @@
         <v>43987</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J11" s="2">
         <v>32683</v>
@@ -3075,7 +3042,7 @@
         <v>12</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N11" s="3">
         <v>13200000</v>
@@ -3086,13 +3053,13 @@
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>16</v>
@@ -3107,7 +3074,7 @@
         <v>43984</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J12" s="2">
         <v>32701</v>
@@ -3119,7 +3086,7 @@
         <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N12" s="3">
         <v>7700000</v>
@@ -3130,13 +3097,13 @@
         <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -3151,7 +3118,7 @@
         <v>43985</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2">
         <v>33431</v>
@@ -3163,7 +3130,7 @@
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N13" s="3">
         <v>762844</v>
@@ -3174,13 +3141,13 @@
         <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C14">
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -3195,7 +3162,7 @@
         <v>43987</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2">
         <v>32499</v>
@@ -3207,7 +3174,7 @@
         <v>3</v>
       </c>
       <c r="M14" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N14" s="3">
         <v>1525635</v>
@@ -3218,13 +3185,13 @@
         <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>11</v>
@@ -3239,7 +3206,7 @@
         <v>43989</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J15" s="2">
         <v>31858</v>
@@ -3259,13 +3226,13 @@
         <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C16">
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>16</v>
@@ -3280,19 +3247,19 @@
         <v>43987</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J16" s="2">
         <v>34465</v>
       </c>
       <c r="K16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L16">
         <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N16" s="3">
         <v>1007236</v>
@@ -3303,13 +3270,13 @@
         <v>96</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -3324,7 +3291,7 @@
         <v>43987</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2">
         <v>33069</v>
@@ -3344,13 +3311,13 @@
         <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C18">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -3365,7 +3332,7 @@
         <v>43985</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J18" s="2">
         <v>32890</v>
@@ -3377,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N18" s="3">
         <v>694670</v>
@@ -3388,13 +3355,13 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -3409,7 +3376,7 @@
         <v>43984</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J19" s="2">
         <v>31929</v>
@@ -3421,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N19" s="3">
         <v>7500000</v>
@@ -3432,13 +3399,13 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -3453,7 +3420,7 @@
         <v>43985</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2">
         <v>33291</v>
@@ -3465,7 +3432,7 @@
         <v>16</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N20" s="3">
         <v>5093727</v>
@@ -3476,13 +3443,13 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21">
         <v>16</v>
@@ -3497,7 +3464,7 @@
         <v>43985</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J21" s="2">
         <v>32082</v>
@@ -3509,7 +3476,7 @@
         <v>7</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N21" s="3">
         <v>12500000</v>
@@ -3520,13 +3487,13 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C22">
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E22">
         <v>11</v>
@@ -3541,7 +3508,7 @@
         <v>43983</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J22" s="2">
         <v>32266</v>
@@ -3553,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="N22" s="3">
         <v>581176</v>
@@ -3564,13 +3531,13 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C23">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -3585,19 +3552,19 @@
         <v>36678</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J23" s="2">
         <v>34111</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N23" s="3">
         <v>483119</v>
@@ -3608,13 +3575,13 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C24">
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>15</v>
@@ -3629,7 +3596,7 @@
         <v>36678</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J24" s="2">
         <v>32694</v>
@@ -3641,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N24" s="3">
         <v>3000000</v>
@@ -3652,13 +3619,13 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <v>15</v>
@@ -3673,7 +3640,7 @@
         <v>43983</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J25" s="2">
         <v>33580</v>
@@ -3685,7 +3652,7 @@
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N25" s="3">
         <v>4050000</v>
@@ -3696,13 +3663,13 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C26">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -3717,7 +3684,7 @@
         <v>43984</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J26" s="2">
         <v>31972</v>
@@ -3729,7 +3696,7 @@
         <v>5</v>
       </c>
       <c r="M26" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N26" s="3">
         <v>11000000</v>
@@ -3740,13 +3707,13 @@
         <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E27">
         <v>12</v>
@@ -3761,19 +3728,19 @@
         <v>43961</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J27" s="2">
         <v>34220</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L27">
         <v>3</v>
       </c>
       <c r="M27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N27" s="3">
         <v>2160785</v>
@@ -3784,13 +3751,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C28">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>16</v>
@@ -3805,7 +3772,7 @@
         <v>43962</v>
       </c>
       <c r="I28" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J28" s="2">
         <v>30580</v>
@@ -3817,7 +3784,7 @@
         <v>8</v>
       </c>
       <c r="M28" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N28" s="3">
         <v>6000000</v>
@@ -3834,10 +3801,13 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="29.58984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -3888,13 +3858,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3909,7 +3879,7 @@
         <v>43985</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>33325</v>
@@ -3921,7 +3891,7 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3">
         <v>5000000</v>
@@ -3932,13 +3902,13 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -3953,7 +3923,7 @@
         <v>43962</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J3" s="2">
         <v>31524</v>
@@ -3965,7 +3935,7 @@
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="N3" s="3">
         <v>1350000</v>
@@ -3976,13 +3946,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -3997,7 +3967,7 @@
         <v>43984</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2">
         <v>33291</v>
@@ -4017,13 +3987,13 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>14</v>
@@ -4038,7 +4008,7 @@
         <v>43983</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2">
         <v>32034</v>
@@ -4050,7 +4020,7 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5" s="3">
         <v>6250000</v>
@@ -4061,13 +4031,13 @@
         <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C6">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>14</v>
@@ -4082,7 +4052,7 @@
         <v>43983</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2">
         <v>34502</v>
@@ -4094,7 +4064,7 @@
         <v>6</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N6" s="3">
         <v>615000</v>
@@ -4105,13 +4075,13 @@
         <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>16</v>
@@ -4126,7 +4096,7 @@
         <v>43988</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J7" s="2">
         <v>32102</v>
@@ -4138,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N7" s="3">
         <v>1000000</v>
@@ -4149,13 +4119,13 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>16</v>
@@ -4170,7 +4140,7 @@
         <v>43987</v>
       </c>
       <c r="I8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J8" s="2">
         <v>31874</v>
@@ -4182,7 +4152,7 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="N8" s="3">
         <v>2500000</v>
@@ -4193,13 +4163,13 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>14</v>
@@ -4214,7 +4184,7 @@
         <v>43986</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2">
         <v>30433</v>
@@ -4234,13 +4204,13 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="C10">
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>16</v>
@@ -4255,7 +4225,7 @@
         <v>43987</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J10" s="2">
         <v>32683</v>
@@ -4267,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N10" s="3">
         <v>6700000</v>
@@ -4278,13 +4248,13 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -4299,7 +4269,7 @@
         <v>43984</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2">
         <v>32701</v>
@@ -4311,7 +4281,7 @@
         <v>9</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N11" s="3">
         <v>6500000</v>
@@ -4322,13 +4292,13 @@
         <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>15</v>
@@ -4343,7 +4313,7 @@
         <v>43985</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12" s="2">
         <v>33431</v>
@@ -4355,7 +4325,7 @@
         <v>6</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N12" s="3">
         <v>5250000</v>
@@ -4366,13 +4336,13 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C13">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>14</v>
@@ -4387,7 +4357,7 @@
         <v>43986</v>
       </c>
       <c r="I13" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="J13" s="2">
         <v>32415</v>
@@ -4399,7 +4369,7 @@
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N13" s="3">
         <v>1050000</v>
@@ -4410,13 +4380,13 @@
         <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>14</v>
@@ -4431,7 +4401,7 @@
         <v>43985</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J14" s="2">
         <v>34359</v>
@@ -4443,7 +4413,7 @@
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N14" s="3">
         <v>982015</v>
@@ -4454,13 +4424,13 @@
         <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C15">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -4475,19 +4445,19 @@
         <v>43985</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J15" s="2">
         <v>34620</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="N15" s="3">
         <v>465000</v>
@@ -4498,13 +4468,13 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>16</v>
@@ -4519,7 +4489,7 @@
         <v>43984</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J16" s="2">
         <v>33234</v>
@@ -4531,7 +4501,7 @@
         <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N16" s="3">
         <v>1797000</v>
@@ -4542,13 +4512,13 @@
         <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="C17">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -4563,7 +4533,7 @@
         <v>43985</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2">
         <v>33291</v>
@@ -4575,7 +4545,7 @@
         <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N17" s="3">
         <v>690000</v>
@@ -4586,13 +4556,13 @@
         <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C18">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -4607,19 +4577,19 @@
         <v>43985</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J18" s="2">
         <v>34993</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="N18" s="3">
         <v>465000</v>
@@ -4630,13 +4600,13 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C19">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -4651,7 +4621,7 @@
         <v>43983</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J19" s="2">
         <v>32291</v>
@@ -4663,7 +4633,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="N19" s="3">
         <v>3000000</v>
@@ -4674,13 +4644,13 @@
         <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C20">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -4695,13 +4665,13 @@
         <v>36678</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J20" s="2">
         <v>34890</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L20">
         <v>3</v>
@@ -4715,13 +4685,13 @@
         <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -4736,7 +4706,7 @@
         <v>36678</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J21" s="2">
         <v>34111</v>
@@ -4748,7 +4718,7 @@
         <v>4</v>
       </c>
       <c r="M21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N21" s="3">
         <v>540000</v>
@@ -4759,13 +4729,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C22">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E22">
         <v>14</v>
@@ -4780,7 +4750,7 @@
         <v>43984</v>
       </c>
       <c r="I22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J22" s="2">
         <v>31972</v>
@@ -4792,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="M22" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N22" s="3">
         <v>5000000</v>
@@ -4803,13 +4773,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C23">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -4824,7 +4794,7 @@
         <v>43983</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J23" s="2">
         <v>33572</v>
@@ -4836,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="N23" s="3">
         <v>615000</v>
@@ -4847,13 +4817,13 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -4868,7 +4838,7 @@
         <v>43983</v>
       </c>
       <c r="I24" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J24" s="2">
         <v>33580</v>
@@ -4880,7 +4850,7 @@
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N24" s="3">
         <v>650000</v>
@@ -4891,13 +4861,13 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E25">
         <v>16</v>
@@ -4912,7 +4882,7 @@
         <v>36678</v>
       </c>
       <c r="I25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J25" s="2">
         <v>33082</v>
@@ -4924,7 +4894,7 @@
         <v>6</v>
       </c>
       <c r="M25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N25" s="3">
         <v>1797000</v>
@@ -4935,13 +4905,13 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C26">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -4956,7 +4926,7 @@
         <v>43961</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J26" s="2">
         <v>34220</v>
@@ -4968,7 +4938,7 @@
         <v>5</v>
       </c>
       <c r="M26" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N26" s="3">
         <v>990196</v>
@@ -4979,13 +4949,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C27">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>16</v>
@@ -5000,7 +4970,7 @@
         <v>43962</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J27" s="2">
         <v>30580</v>
@@ -5012,7 +4982,7 @@
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N27" s="3">
         <v>2750000</v>
@@ -5028,10 +4998,13 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -5082,13 +5055,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>16</v>
@@ -5103,7 +5076,7 @@
         <v>43985</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>33325</v>
@@ -5115,7 +5088,7 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3">
         <v>7400000</v>
@@ -5126,13 +5099,13 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C3">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>16</v>
@@ -5147,7 +5120,7 @@
         <v>43960</v>
       </c>
       <c r="I3" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J3" s="2">
         <v>32521</v>
@@ -5159,7 +5132,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="N3" s="3">
         <v>850000</v>
@@ -5170,13 +5143,13 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C4">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -5191,7 +5164,7 @@
         <v>43962</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J4" s="2">
         <v>31524</v>
@@ -5203,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="N4" s="3">
         <v>2500000</v>
@@ -5214,13 +5187,13 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -5235,7 +5208,7 @@
         <v>43984</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>33291</v>
@@ -5255,13 +5228,13 @@
         <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C6">
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -5276,7 +5249,7 @@
         <v>43985</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="J6" s="2">
         <v>31198</v>
@@ -5288,7 +5261,7 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="N6" s="3">
         <v>3400000</v>
@@ -5299,13 +5272,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C7">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -5320,7 +5293,7 @@
         <v>43985</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J7" s="2">
         <v>31720</v>
@@ -5332,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="N7" s="3">
         <v>915000</v>
@@ -5343,13 +5316,13 @@
         <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -5364,7 +5337,7 @@
         <v>43983</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2">
         <v>34502</v>
@@ -5376,7 +5349,7 @@
         <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N8" s="3">
         <v>700000</v>
@@ -5387,13 +5360,13 @@
         <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C9">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -5408,19 +5381,19 @@
         <v>43986</v>
       </c>
       <c r="I9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J9" s="2">
         <v>34593</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N9" s="3">
         <v>129200</v>
@@ -5431,13 +5404,13 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="C10">
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>16</v>
@@ -5452,7 +5425,7 @@
         <v>43987</v>
       </c>
       <c r="I10" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J10" s="2">
         <v>31874</v>
@@ -5464,7 +5437,7 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="N10" s="3">
         <v>5000000</v>
@@ -5475,13 +5448,13 @@
         <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C11">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>16</v>
@@ -5496,19 +5469,19 @@
         <v>43990</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J11" s="2">
         <v>34981</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L11">
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N11" s="3">
         <v>480000</v>
@@ -5519,13 +5492,13 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C12">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -5540,7 +5513,7 @@
         <v>43987</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J12" s="2">
         <v>32683</v>
@@ -5552,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N12" s="3">
         <v>9700000</v>
@@ -5563,13 +5536,13 @@
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -5584,7 +5557,7 @@
         <v>43984</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2">
         <v>32701</v>
@@ -5596,7 +5569,7 @@
         <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N13" s="3">
         <v>915000</v>
@@ -5607,13 +5580,13 @@
         <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -5628,7 +5601,7 @@
         <v>43985</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J14" s="2">
         <v>33431</v>
@@ -5640,7 +5613,7 @@
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N14" s="3">
         <v>4250000</v>
@@ -5651,13 +5624,13 @@
         <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C15">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -5672,19 +5645,19 @@
         <v>43990</v>
       </c>
       <c r="I15" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J15" s="2">
         <v>34993</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L15">
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="N15" s="3">
         <v>480000</v>
@@ -5695,13 +5668,13 @@
         <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C16">
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -5716,7 +5689,7 @@
         <v>43985</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2">
         <v>30573</v>
@@ -5728,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="N16" s="3">
         <v>1015000</v>
@@ -5739,13 +5712,13 @@
         <v>73</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C17">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>13</v>
@@ -5760,19 +5733,19 @@
         <v>43984</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J17" s="2">
         <v>34828</v>
       </c>
       <c r="K17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
       <c r="M17" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N17" s="3">
         <v>480000</v>
@@ -5783,13 +5756,13 @@
         <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C18">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E18">
         <v>14</v>
@@ -5804,19 +5777,19 @@
         <v>36678</v>
       </c>
       <c r="I18" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J18" s="2">
         <v>34794</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="N18" s="3">
         <v>480000</v>
@@ -5827,13 +5800,13 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C19">
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>15</v>
@@ -5848,7 +5821,7 @@
         <v>43985</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J19" s="2">
         <v>33693</v>
@@ -5860,7 +5833,7 @@
         <v>6</v>
       </c>
       <c r="M19" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N19" s="3">
         <v>1534118</v>
@@ -5871,13 +5844,13 @@
         <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C20">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>16</v>
@@ -5892,19 +5865,19 @@
         <v>43987</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J20" s="2">
         <v>35188</v>
       </c>
       <c r="K20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N20" s="3">
         <v>480000</v>
@@ -5915,13 +5888,13 @@
         <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C21">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -5936,7 +5909,7 @@
         <v>43985</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J21" s="2">
         <v>32082</v>
@@ -5948,7 +5921,7 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="N21" s="3">
         <v>8000000</v>
@@ -5959,13 +5932,13 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C22">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>16</v>
@@ -5980,7 +5953,7 @@
         <v>36678</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J22" s="2">
         <v>34890</v>
@@ -6000,13 +5973,13 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C23">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -6021,7 +5994,7 @@
         <v>43985</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J23" s="2">
         <v>34993</v>
@@ -6033,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="N23" s="3">
         <v>555000</v>
@@ -6044,13 +6017,13 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C24">
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>16</v>
@@ -6065,7 +6038,7 @@
         <v>43984</v>
       </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J24" s="2">
         <v>32965</v>
@@ -6077,7 +6050,7 @@
         <v>7</v>
       </c>
       <c r="M24" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="N24" s="3">
         <v>3100000</v>
@@ -6088,13 +6061,13 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -6109,7 +6082,7 @@
         <v>43983</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J25" s="2">
         <v>34752</v>
@@ -6121,7 +6094,7 @@
         <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="N25" s="3">
         <v>481767</v>
@@ -6132,13 +6105,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C26">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E26">
         <v>14</v>
@@ -6153,7 +6126,7 @@
         <v>43984</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="J26" s="2">
         <v>32783</v>
@@ -6173,13 +6146,13 @@
         <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E27">
         <v>15</v>
@@ -6194,7 +6167,7 @@
         <v>36678</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J27" s="2">
         <v>34879</v>
@@ -6206,7 +6179,7 @@
         <v>5</v>
       </c>
       <c r="M27" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N27" s="3">
         <v>940792</v>
@@ -6217,13 +6190,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C28">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E28">
         <v>16</v>
@@ -6238,7 +6211,7 @@
         <v>43961</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J28" s="2">
         <v>32485</v>
@@ -6250,7 +6223,7 @@
         <v>5</v>
       </c>
       <c r="M28" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="N28" s="3">
         <v>2000000</v>
@@ -6261,13 +6234,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C29">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>11</v>
@@ -6282,7 +6255,7 @@
         <v>43962</v>
       </c>
       <c r="I29" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J29" s="2">
         <v>30580</v>
@@ -6294,7 +6267,7 @@
         <v>3</v>
       </c>
       <c r="M29" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N29" s="3">
         <v>1150000</v>
@@ -6305,13 +6278,13 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C30">
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E30">
         <v>13</v>
@@ -6326,7 +6299,7 @@
         <v>43961</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J30" s="2">
         <v>34220</v>
@@ -6338,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="M30" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N30" s="3">
         <v>1530392</v>
@@ -6354,10 +6327,13 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="24.6796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
@@ -6408,13 +6384,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>16</v>
@@ -6429,7 +6405,7 @@
         <v>43985</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="2">
         <v>33325</v>
@@ -6441,7 +6417,7 @@
         <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="3">
         <v>19900000</v>
@@ -6452,13 +6428,13 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C3">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>13</v>
@@ -6473,19 +6449,19 @@
         <v>43961</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2">
         <v>35837</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="N3" s="3">
         <v>495000</v>
@@ -6496,13 +6472,13 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C4">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -6517,7 +6493,7 @@
         <v>43986</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="J4" s="2">
         <v>33646</v>
@@ -6537,13 +6513,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -6558,7 +6534,7 @@
         <v>43984</v>
       </c>
       <c r="I5" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="J5" s="2">
         <v>34788</v>
@@ -6570,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -6579,13 +6555,13 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>16</v>
@@ -6600,7 +6576,7 @@
         <v>43988</v>
       </c>
       <c r="I6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J6" s="2">
         <v>33860</v>
@@ -6612,7 +6588,7 @@
         <v>8</v>
       </c>
       <c r="M6" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="N6" s="3">
         <v>720000</v>
@@ -6623,13 +6599,13 @@
         <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -6644,19 +6620,19 @@
         <v>43986</v>
       </c>
       <c r="I7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J7" s="2">
         <v>35556</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="N7" s="3">
         <v>910000</v>
@@ -6667,13 +6643,13 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>16</v>
@@ -6688,7 +6664,7 @@
         <v>43990</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J8" s="2">
         <v>34981</v>
@@ -6700,7 +6676,7 @@
         <v>8</v>
       </c>
       <c r="M8" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N8" s="3">
         <v>1092333</v>
@@ -6711,13 +6687,13 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C9">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>12</v>
@@ -6732,7 +6708,7 @@
         <v>43985</v>
       </c>
       <c r="I9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J9" s="2">
         <v>30502</v>
@@ -6744,7 +6720,7 @@
         <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="N9" s="3">
         <v>1030000</v>
@@ -6755,13 +6731,13 @@
         <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -6776,7 +6752,7 @@
         <v>43984</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J10" s="2">
         <v>32701</v>
@@ -6788,7 +6764,7 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N10" s="3">
         <v>8250000</v>
@@ -6799,13 +6775,13 @@
         <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>11</v>
@@ -6820,7 +6796,7 @@
         <v>43985</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11" s="2">
         <v>33431</v>
@@ -6832,7 +6808,7 @@
         <v>5</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11" s="3">
         <v>6750000</v>
@@ -6843,13 +6819,13 @@
         <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C12">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E12">
         <v>16</v>
@@ -6864,7 +6840,7 @@
         <v>43987</v>
       </c>
       <c r="I12" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J12" s="2">
         <v>33305</v>
@@ -6876,7 +6852,7 @@
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N12" s="3">
         <v>1000000</v>
@@ -6887,13 +6863,13 @@
         <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="C13">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -6908,7 +6884,7 @@
         <v>43990</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J13" s="2">
         <v>34072</v>
@@ -6920,7 +6896,7 @@
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="N13" s="3">
         <v>5000000</v>
@@ -6931,13 +6907,13 @@
         <v>96</v>
       </c>
       <c r="B14" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="C14">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>15</v>
@@ -6952,19 +6928,19 @@
         <v>43986</v>
       </c>
       <c r="I14" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J14" s="2">
         <v>35567</v>
       </c>
       <c r="K14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L14">
         <v>7</v>
       </c>
       <c r="M14" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="N14" s="3">
         <v>495000</v>
@@ -6975,13 +6951,13 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="C15">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E15">
         <v>16</v>
@@ -6996,7 +6972,7 @@
         <v>36678</v>
       </c>
       <c r="I15" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J15" s="2">
         <v>34794</v>
@@ -7008,7 +6984,7 @@
         <v>5</v>
       </c>
       <c r="M15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="N15" s="3">
         <v>693830</v>
@@ -7019,13 +6995,13 @@
         <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C16">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16">
         <v>16</v>
@@ -7040,7 +7016,7 @@
         <v>43985</v>
       </c>
       <c r="I16" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J16" s="2">
         <v>33693</v>
@@ -7052,7 +7028,7 @@
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N16" s="3">
         <v>1000000</v>
@@ -7063,13 +7039,13 @@
         <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C17">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E17">
         <v>13</v>
@@ -7084,7 +7060,7 @@
         <v>43988</v>
       </c>
       <c r="I17" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="J17" s="2">
         <v>33286</v>
@@ -7104,13 +7080,13 @@
         <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C18">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -7125,19 +7101,19 @@
         <v>43987</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="J18" s="2">
         <v>35664</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L18">
         <v>6</v>
       </c>
       <c r="M18" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="N18" s="3">
         <v>822500</v>
@@ -7148,13 +7124,13 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C19">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>16</v>
@@ -7169,7 +7145,7 @@
         <v>43984</v>
       </c>
       <c r="I19" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J19" s="2">
         <v>32965</v>
@@ -7181,7 +7157,7 @@
         <v>7</v>
       </c>
       <c r="M19" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="N19" s="3">
         <v>2950000</v>
@@ -7192,13 +7168,13 @@
         <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C20">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -7213,7 +7189,7 @@
         <v>43983</v>
       </c>
       <c r="I20" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="J20" s="2">
         <v>33140</v>
@@ -7233,13 +7209,13 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C21">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>16</v>
@@ -7254,7 +7230,7 @@
         <v>36678</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J21" s="2">
         <v>34890</v>
@@ -7274,13 +7250,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C22">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -7295,7 +7271,7 @@
         <v>43983</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J22" s="2">
         <v>34752</v>
@@ -7307,7 +7283,7 @@
         <v>5</v>
       </c>
       <c r="M22" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="N22" s="3">
         <v>3095000</v>
@@ -7318,13 +7294,13 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>16</v>
@@ -7339,19 +7315,19 @@
         <v>43984</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J23" s="2">
         <v>35693</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="N23" s="3">
         <v>495000</v>
@@ -7362,13 +7338,13 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C24">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -7383,7 +7359,7 @@
         <v>36678</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J24" s="2">
         <v>34879</v>
@@ -7395,7 +7371,7 @@
         <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N24" s="3">
         <v>1416584</v>
@@ -7406,13 +7382,13 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C25">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -7427,7 +7403,7 @@
         <v>43961</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J25" s="2">
         <v>34220</v>
@@ -7439,7 +7415,7 @@
         <v>3</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="N25" s="3">
         <v>2070589</v>
@@ -7450,13 +7426,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C26">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E26">
         <v>16</v>
@@ -7471,7 +7447,7 @@
         <v>43984</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J26" s="2">
         <v>32965</v>
@@ -7491,13 +7467,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C27">
         <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="E27">
         <v>11</v>
@@ -7512,7 +7488,7 @@
         <v>43960</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J27" s="2">
         <v>33351</v>
@@ -7524,7 +7500,7 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="N27" s="3">
         <v>1000000</v>
@@ -7535,13 +7511,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C28">
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="E28">
         <v>14</v>
@@ -7556,7 +7532,7 @@
         <v>43959</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2">
         <v>33204</v>
@@ -7568,7 +7544,7 @@
         <v>3</v>
       </c>
       <c r="M28" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N28" s="3">
         <v>4700000</v>
@@ -7581,20 +7557,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE80EC-F783-4ECD-A6E9-11898BE9D05F}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="42.1328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -7638,13 +7617,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C2">
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -7659,7 +7638,7 @@
         <v>43984</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="J2" s="2">
         <v>34458</v>
@@ -7668,7 +7647,7 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="N2" s="3">
         <v>1000000</v>
@@ -7679,13 +7658,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C3">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
       <c r="G3">
         <v>222</v>
@@ -7694,7 +7679,7 @@
         <v>43986</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J3" s="2">
         <v>34272</v>
@@ -7703,7 +7688,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="N3" s="3">
         <v>7500000</v>
@@ -7714,19 +7699,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>210</v>
@@ -7735,7 +7720,7 @@
         <v>43985</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="2">
         <v>33325</v>
@@ -7744,7 +7729,7 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4" s="3">
         <v>18900000</v>
@@ -7755,16 +7740,16 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7776,7 +7761,7 @@
         <v>43960</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J5" s="2">
         <v>33362</v>
@@ -7785,7 +7770,7 @@
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="N5" s="3">
         <v>481765</v>
@@ -7796,16 +7781,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C6">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -7817,7 +7802,7 @@
         <v>43959</v>
       </c>
       <c r="I6" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="J6" s="2">
         <v>34257</v>
@@ -7834,19 +7819,19 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C7">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>220</v>
@@ -7855,7 +7840,7 @@
         <v>43961</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2">
         <v>35837</v>
@@ -7864,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="N7" s="3">
         <v>1037427</v>
@@ -7875,16 +7860,16 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C8">
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -7896,7 +7881,7 @@
         <v>43962</v>
       </c>
       <c r="I8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J8" s="2">
         <v>33751</v>
@@ -7905,7 +7890,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="N8" s="3">
         <v>910000</v>
@@ -7916,16 +7901,16 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C9">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -7937,7 +7922,7 @@
         <v>43983</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J9" s="2">
         <v>35255</v>
@@ -7954,16 +7939,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -7975,7 +7960,7 @@
         <v>43961</v>
       </c>
       <c r="I10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J10" s="2">
         <v>35054</v>
@@ -7984,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="N10" s="3">
         <v>675000</v>
@@ -7995,28 +7980,28 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <v>200</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>43984</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="J11" s="2">
         <v>34788</v>
@@ -8025,7 +8010,7 @@
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="N11" s="3">
         <v>1339522</v>
@@ -8036,16 +8021,16 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C12">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>3</v>
@@ -8053,20 +8038,20 @@
       <c r="G12">
         <v>212</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>43985</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J12" s="2">
         <v>36112</v>
       </c>
       <c r="K12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="N12" s="3">
         <v>610000</v>
@@ -8077,16 +8062,16 @@
         <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -8098,7 +8083,7 @@
         <v>43985</v>
       </c>
       <c r="I13" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J13" s="2">
         <v>33079</v>
@@ -8115,19 +8100,19 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C14">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14">
         <v>198</v>
@@ -8136,7 +8121,7 @@
         <v>36678</v>
       </c>
       <c r="I14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J14" s="2">
         <v>34113</v>
@@ -8145,7 +8130,7 @@
         <v>5</v>
       </c>
       <c r="M14" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="N14" s="3">
         <v>910000</v>
@@ -8156,16 +8141,16 @@
         <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C15">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -8177,7 +8162,7 @@
         <v>43988</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J15" s="2">
         <v>30077</v>
@@ -8186,7 +8171,7 @@
         <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N15" s="3">
         <v>3500000</v>
@@ -8197,19 +8182,19 @@
         <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C16">
         <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
         <v>13</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
       </c>
       <c r="G16">
         <v>255</v>
@@ -8218,7 +8203,7 @@
         <v>43988</v>
       </c>
       <c r="I16" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="J16" s="2">
         <v>33860</v>
@@ -8227,7 +8212,7 @@
         <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="N16" s="3">
         <v>7280000</v>
@@ -8238,19 +8223,19 @@
         <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C17">
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>250</v>
@@ -8259,7 +8244,7 @@
         <v>43986</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J17" s="2">
         <v>35556</v>
@@ -8268,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="N17" s="3">
         <v>675000</v>
@@ -8279,13 +8264,13 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C18">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -8300,16 +8285,16 @@
         <v>43986</v>
       </c>
       <c r="I18" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J18" s="2">
         <v>35661</v>
       </c>
       <c r="K18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="N18" s="3">
         <v>610000</v>
@@ -8320,19 +8305,19 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19">
         <v>315</v>
@@ -8341,7 +8326,7 @@
         <v>43984</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2">
         <v>32701</v>
@@ -8350,7 +8335,7 @@
         <v>9</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N19" s="3">
         <v>1050000</v>
@@ -8361,13 +8346,13 @@
         <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -8382,7 +8367,7 @@
         <v>43990</v>
       </c>
       <c r="I20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="J20" s="2">
         <v>34993</v>
@@ -8391,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="N20" s="3">
         <v>852304</v>
@@ -8402,19 +8387,19 @@
         <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C21">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <v>325</v>
@@ -8423,7 +8408,7 @@
         <v>43990</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J21" s="2">
         <v>34981</v>
@@ -8432,7 +8417,7 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="N21" s="3">
         <v>1704666</v>
@@ -8443,19 +8428,19 @@
         <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C22">
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
         <v>13</v>
-      </c>
-      <c r="F22">
-        <v>12</v>
       </c>
       <c r="G22">
         <v>340</v>
@@ -8464,7 +8449,7 @@
         <v>43987</v>
       </c>
       <c r="I22" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J22" s="2">
         <v>33305</v>
@@ -8473,7 +8458,7 @@
         <v>5</v>
       </c>
       <c r="M22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="N22" s="3">
         <v>1400000</v>
@@ -8484,19 +8469,19 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C23">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>380</v>
@@ -8505,7 +8490,7 @@
         <v>43990</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J23" s="2">
         <v>34072</v>
@@ -8514,7 +8499,7 @@
         <v>5</v>
       </c>
       <c r="M23" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="N23" s="3">
         <v>21250000</v>
@@ -8525,16 +8510,16 @@
         <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C24">
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -8546,7 +8531,7 @@
         <v>43990</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J24" s="2">
         <v>31952</v>
@@ -8555,7 +8540,7 @@
         <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N24" s="3">
         <v>1050000</v>
@@ -8566,16 +8551,16 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C25">
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="E25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -8587,7 +8572,7 @@
         <v>43986</v>
       </c>
       <c r="I25" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J25" s="2">
         <v>35552</v>
@@ -8604,19 +8589,19 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G26">
         <v>335</v>
@@ -8625,7 +8610,7 @@
         <v>43985</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J26" s="2">
         <v>33431</v>
@@ -8634,7 +8619,7 @@
         <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N26" s="3">
         <v>9350000</v>
@@ -8645,16 +8630,16 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -8666,13 +8651,13 @@
         <v>43985</v>
       </c>
       <c r="I27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J27" s="2">
         <v>34842</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N27" s="3">
         <v>610000</v>
@@ -8683,16 +8668,16 @@
         <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -8704,7 +8689,7 @@
         <v>43983</v>
       </c>
       <c r="I28" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J28" s="2">
         <v>33645</v>
@@ -8713,7 +8698,7 @@
         <v>6</v>
       </c>
       <c r="M28" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="N28" s="3"/>
     </row>
@@ -8722,19 +8707,19 @@
         <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C29">
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>275</v>
@@ -8743,7 +8728,7 @@
         <v>43989</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J29" s="2">
         <v>34071</v>
@@ -8752,7 +8737,7 @@
         <v>4</v>
       </c>
       <c r="M29" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="N29" s="3">
         <v>7500000</v>
@@ -8763,16 +8748,16 @@
         <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C30">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -8784,7 +8769,7 @@
         <v>43987</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J30" s="2">
         <v>35188</v>
@@ -8793,7 +8778,7 @@
         <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="N30" s="3">
         <v>750000</v>
@@ -8804,19 +8789,19 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C31">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>291</v>
@@ -8825,7 +8810,7 @@
         <v>43984</v>
       </c>
       <c r="I31" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J31" s="2">
         <v>34828</v>
@@ -8834,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="N31" s="3">
         <v>520590</v>
@@ -8845,28 +8830,28 @@
         <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C32">
         <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32">
         <v>340</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="4">
         <v>43985</v>
       </c>
       <c r="I32" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J32" s="2">
         <v>33693</v>
@@ -8875,7 +8860,7 @@
         <v>7</v>
       </c>
       <c r="M32" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="N32" s="3">
         <v>3750000</v>
@@ -8886,16 +8871,16 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C33">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -8903,11 +8888,11 @@
       <c r="G33">
         <v>240</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="1">
         <v>43986</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="J33" s="2">
         <v>32624</v>
@@ -8916,7 +8901,7 @@
         <v>8</v>
       </c>
       <c r="M33" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="N33" s="3">
         <v>1050000</v>
@@ -8927,16 +8912,16 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C34">
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -8948,7 +8933,7 @@
         <v>43985</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J34" s="2">
         <v>33793</v>
@@ -8957,7 +8942,7 @@
         <v>5</v>
       </c>
       <c r="M34" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="N34" s="3"/>
     </row>
@@ -8966,16 +8951,16 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C35">
         <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -8987,7 +8972,7 @@
         <v>43984</v>
       </c>
       <c r="I35" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="J35" s="2">
         <v>35020</v>
@@ -8996,7 +8981,7 @@
         <v>2</v>
       </c>
       <c r="M35" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="N35" s="3">
         <v>1105573</v>
@@ -9007,19 +8992,19 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C36">
         <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36">
         <v>243</v>
@@ -9028,7 +9013,7 @@
         <v>43984</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J36" s="2">
         <v>34115</v>
@@ -9037,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="M36" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="N36" s="3">
         <v>7000000</v>
@@ -9048,13 +9033,13 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C37">
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E37">
         <v>13</v>
@@ -9069,7 +9054,7 @@
         <v>36678</v>
       </c>
       <c r="I37" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J37" s="2">
         <v>34890</v>
@@ -9086,28 +9071,28 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C38">
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>228</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="4">
         <v>43985</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" s="2">
         <v>34291</v>
@@ -9121,634 +9106,532 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A39">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>320</v>
+        <v>306</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>215</v>
-      </c>
-      <c r="H39" s="4">
-        <v>43983</v>
+        <v>187</v>
+      </c>
+      <c r="H39" s="1">
+        <v>43959</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="J39" s="2">
-        <v>34752</v>
-      </c>
-      <c r="K39">
-        <v>4</v>
+        <v>35982</v>
+      </c>
+      <c r="K39" t="s">
+        <v>30</v>
       </c>
       <c r="M39" t="s">
-        <v>215</v>
-      </c>
-      <c r="N39" s="3"/>
+        <v>308</v>
+      </c>
+      <c r="N39" s="3">
+        <v>610000</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A40">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="H40" s="1">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="J40" s="2">
-        <v>35982</v>
-      </c>
-      <c r="K40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M40" t="s">
-        <v>322</v>
+        <v>35603</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
       </c>
       <c r="N40" s="3">
-        <v>610000</v>
+        <v>675000</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A41">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
       <c r="C41">
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G41">
         <v>200</v>
       </c>
       <c r="H41" s="1">
-        <v>43961</v>
+        <v>43984</v>
       </c>
       <c r="I41" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="J41" s="2">
-        <v>35603</v>
+        <v>35693</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
+      <c r="M41" t="s">
+        <v>241</v>
+      </c>
       <c r="N41" s="3">
-        <v>675000</v>
+        <v>824961</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C42">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H42" s="1">
-        <v>43984</v>
+        <v>43960</v>
       </c>
       <c r="I42" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="J42" s="2">
-        <v>35693</v>
+        <v>33351</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M42" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="N42" s="3">
-        <v>824961</v>
+        <v>1062500</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A43">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>190</v>
-      </c>
-      <c r="H43" s="1">
-        <v>43960</v>
+        <v>185</v>
+      </c>
+      <c r="H43" s="4">
+        <v>43959</v>
       </c>
       <c r="I43" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J43" s="2">
-        <v>33351</v>
+        <v>33204</v>
       </c>
       <c r="K43">
         <v>6</v>
       </c>
       <c r="M43" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="N43" s="3">
-        <v>1062500</v>
+        <v>4600000</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A44">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>195</v>
+      </c>
+      <c r="H44" s="1">
+        <v>36678</v>
+      </c>
+      <c r="I44" t="s">
+        <v>194</v>
+      </c>
+      <c r="J44" s="2">
+        <v>35097</v>
+      </c>
+      <c r="K44" t="s">
         <v>30</v>
       </c>
-      <c r="D44" t="s">
-        <v>320</v>
-      </c>
-      <c r="E44">
-        <v>11</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>185</v>
-      </c>
-      <c r="H44" s="4">
-        <v>43959</v>
-      </c>
-      <c r="I44" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="2">
-        <v>33204</v>
-      </c>
-      <c r="K44">
-        <v>6</v>
-      </c>
       <c r="M44" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="N44" s="3">
-        <v>4600000</v>
+        <v>437058</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A45">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C45">
         <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E45">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="H45" s="1">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="I45" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="J45" s="2">
-        <v>35053</v>
+        <v>34838</v>
       </c>
       <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="M45" t="s">
-        <v>325</v>
+        <v>2</v>
       </c>
       <c r="N45" s="3">
-        <v>675000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A46">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E46">
         <v>7</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>195</v>
       </c>
       <c r="H46" s="1">
-        <v>36678</v>
+        <v>43961</v>
       </c>
       <c r="I46" t="s">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="J46" s="2">
-        <v>35097</v>
-      </c>
-      <c r="K46" t="s">
-        <v>33</v>
-      </c>
-      <c r="M46" t="s">
-        <v>327</v>
+        <v>34554</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
       </c>
       <c r="N46" s="3">
-        <v>437058</v>
+        <v>555884</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A47">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C47">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E47">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G47">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H47" s="1">
-        <v>43985</v>
+        <v>36678</v>
       </c>
       <c r="I47" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="J47" s="2">
-        <v>34838</v>
+        <v>35363</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>317</v>
       </c>
       <c r="N47" s="3">
-        <v>750000</v>
+        <v>1017509</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A48">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="H48" s="1">
-        <v>43961</v>
+        <v>43987</v>
       </c>
       <c r="I48" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="J48" s="2">
-        <v>34554</v>
+        <v>34722</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
+      <c r="M48" t="s">
+        <v>321</v>
+      </c>
       <c r="N48" s="3">
-        <v>555884</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A49">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>205</v>
-      </c>
-      <c r="H49" s="1">
-        <v>36678</v>
+        <v>220</v>
+      </c>
+      <c r="H49" s="4">
+        <v>43986</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J49" s="2">
-        <v>35363</v>
+        <v>35030</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="M49" t="s">
-        <v>333</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1017509</v>
-      </c>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A50">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="E50">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50">
         <v>11</v>
       </c>
       <c r="G50">
-        <v>220</v>
-      </c>
-      <c r="H50" s="4">
-        <v>43984</v>
+        <v>265</v>
+      </c>
+      <c r="H50" s="1">
+        <v>43986</v>
       </c>
       <c r="I50" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="J50" s="2">
-        <v>32965</v>
+        <v>35567</v>
       </c>
       <c r="K50">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>232</v>
       </c>
       <c r="N50" s="3">
-        <v>2350000</v>
+        <v>1920492</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A51">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="C51">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G51">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="H51" s="1">
         <v>43987</v>
       </c>
       <c r="I51" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="J51" s="2">
-        <v>34722</v>
+        <v>35664</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>337</v>
-      </c>
-      <c r="N51" s="3">
-        <v>750000</v>
+        <v>237</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A52">
-        <v>6</v>
-      </c>
-      <c r="B52" t="s">
-        <v>338</v>
-      </c>
-      <c r="C52">
-        <v>25</v>
-      </c>
-      <c r="D52" t="s">
-        <v>339</v>
-      </c>
-      <c r="E52">
-        <v>13</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>220</v>
-      </c>
-      <c r="H52" s="1">
-        <v>43986</v>
-      </c>
-      <c r="I52" t="s">
-        <v>95</v>
-      </c>
-      <c r="J52" s="2">
-        <v>35030</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
+      <c r="H52" s="1"/>
+      <c r="J52" s="2"/>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A53">
-        <v>96</v>
-      </c>
-      <c r="B53" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53">
-        <v>23</v>
-      </c>
-      <c r="D53" t="s">
-        <v>340</v>
-      </c>
-      <c r="E53">
-        <v>11</v>
-      </c>
-      <c r="F53">
-        <v>11</v>
-      </c>
-      <c r="G53">
-        <v>265</v>
-      </c>
-      <c r="H53" s="1">
-        <v>43986</v>
-      </c>
-      <c r="I53" t="s">
-        <v>221</v>
-      </c>
-      <c r="J53" s="2">
-        <v>35567</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="M53" t="s">
-        <v>245</v>
-      </c>
-      <c r="N53" s="3">
-        <v>1920492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A54">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54">
-        <v>23</v>
-      </c>
-      <c r="D54" t="s">
-        <v>340</v>
-      </c>
-      <c r="E54">
-        <v>13</v>
-      </c>
-      <c r="F54">
-        <v>13</v>
-      </c>
-      <c r="G54">
-        <v>255</v>
-      </c>
-      <c r="H54" s="1">
-        <v>43987</v>
-      </c>
-      <c r="I54" t="s">
-        <v>249</v>
-      </c>
-      <c r="J54" s="2">
-        <v>35664</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="M54" t="s">
-        <v>250</v>
-      </c>
-      <c r="N54" s="3">
-        <v>610000</v>
-      </c>
+      <c r="H53" s="1"/>
+      <c r="J53" s="2"/>
+      <c r="N53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
